--- a/biology/Botanique/Monsieur_Paul_Lédé/Monsieur_Paul_Lédé.xlsx
+++ b/biology/Botanique/Monsieur_Paul_Lédé/Monsieur_Paul_Lédé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Monsieur_Paul_L%C3%A9d%C3%A9</t>
+          <t>Monsieur_Paul_Lédé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-'Monsieur Paul Lédé' est un cultivar de rosier hybride de thé obtenu en 1903[1] par le fameux rosiériste lyonnais Joseph Pernet-Ducher[2]. C'est surtout sa variété grimpante qui est répandue aujourd'hui.
+'Monsieur Paul Lédé' est un cultivar de rosier hybride de thé obtenu en 1903 par le fameux rosiériste lyonnais Joseph Pernet-Ducher. C'est surtout sa variété grimpante qui est répandue aujourd'hui.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Monsieur_Paul_L%C3%A9d%C3%A9</t>
+          <t>Monsieur_Paul_Lédé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette variété donne de longs boutons, puis de grosses fleurs rose abricot de 8 à 10 cm (plus intenses au cœur) avec parfois quelques taches de jaune paille très pâle à la base des pétales[3]. Elles sont pleines, doubles (17-25 pétales), en forme de coupe. Elles sont moyennement parfumées[4]. La floraison est remontante[2].   
-Son buisson vigoureux de 80 cm à 120 cm[5] de hauteur résiste au froid de l'hiver.
-C'est sa variété grimpante qui est la plus répandue aujourd'hui depuis la découverte d'un sport grimpant par Lowe en Grande-Bretagne en 1913[6],[7]. Ses fleurs tirent plus sur l'abricot[8],[9]. Il peut atteindre 450 cm de hauteur et 150 cm de largeur[10] s'il jouit d'une bonne exposition ensoleillée. On peut l'admirer à la roseraie du Val-de-Marne de L'Haÿ-les-Roses[11].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette variété donne de longs boutons, puis de grosses fleurs rose abricot de 8 à 10 cm (plus intenses au cœur) avec parfois quelques taches de jaune paille très pâle à la base des pétales. Elles sont pleines, doubles (17-25 pétales), en forme de coupe. Elles sont moyennement parfumées. La floraison est remontante.   
+Son buisson vigoureux de 80 cm à 120 cm de hauteur résiste au froid de l'hiver.
+C'est sa variété grimpante qui est la plus répandue aujourd'hui depuis la découverte d'un sport grimpant par Lowe en Grande-Bretagne en 1913,. Ses fleurs tirent plus sur l'abricot,. Il peut atteindre 450 cm de hauteur et 150 cm de largeur s'il jouit d'une bonne exposition ensoleillée. On peut l'admirer à la roseraie du Val-de-Marne de L'Haÿ-les-Roses.
 </t>
         </is>
       </c>
